--- a/shozaki/友達管理 画面デザイン/友達管理画面デザイン.xlsx
+++ b/shozaki/友達管理 画面デザイン/友達管理画面デザイン.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiueo\StudyMeeting\shozaki\友達管理 画面デザイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44996233-1BA7-441E-8312-64CBD75E68EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE04C5D7-93FE-489F-B3BC-64DE49AB3B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{EA7E5C23-2A62-4C40-8138-000103930D15}"/>
+    <workbookView xWindow="525" yWindow="-240" windowWidth="15375" windowHeight="7335" activeTab="3" xr2:uid="{EA7E5C23-2A62-4C40-8138-000103930D15}"/>
   </bookViews>
   <sheets>
     <sheet name="友達リスト" sheetId="1" r:id="rId1"/>
-    <sheet name="友達リスト 　のぞき見" sheetId="3" r:id="rId2"/>
-    <sheet name="自己プロフィール編集" sheetId="2" r:id="rId3"/>
+    <sheet name="友達追加画面" sheetId="5" r:id="rId2"/>
+    <sheet name="友達リスト 　のぞき見" sheetId="3" r:id="rId3"/>
+    <sheet name="自己プロフィール編集 &amp; 友達編集画面" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -7212,10 +7213,3533 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391989</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>164616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="四角形: 角を丸くする 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CD5A23-B927-469B-B4F6-76FB89AE07DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209924" y="1876426"/>
+          <a:ext cx="611065" cy="193190"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>460665</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>213881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>385930</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168946</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="四角形: 角を丸くする 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA80F7F-4AFC-406C-B9D3-F65D02A0F401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3203865" y="3071381"/>
+          <a:ext cx="611065" cy="193190"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>451140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>210950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376405</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="四角形: 角を丸くする 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28C7724-2D2D-4E91-A077-7266D6DC3190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3194340" y="6402200"/>
+          <a:ext cx="611065" cy="193190"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441615</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>77600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>366880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>32665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="四角形: 角を丸くする 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4D34ED-D7D8-40A4-A2A8-EAC27BF51B92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3184815" y="7697600"/>
+          <a:ext cx="611065" cy="193190"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403515</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>125225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328780</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="四角形: 角を丸くする 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74C8281-75E1-4675-9D9F-6FF973A11B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3146715" y="8935850"/>
+          <a:ext cx="611065" cy="193190"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>193965</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="四角形: 角を丸くする 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3805D497-37FB-403E-AC20-C21C97E08AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1565565" y="1461656"/>
+          <a:ext cx="777585" cy="243319"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>友達追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>174915</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>96650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="四角形: 角を丸くする 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3268D1C9-C5B6-45B9-90B9-580115D1D608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546515" y="6049775"/>
+          <a:ext cx="777585" cy="243319"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>友達追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>565440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>232931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>308264</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>232930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3142E4F-B47E-4F65-B707-0DF003F1BD0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="565440" y="947306"/>
+          <a:ext cx="6600824" cy="3809999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFE593"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300403</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185304</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D34658B-0561-41B8-B76D-ED8AE53D10A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="585107" y="962024"/>
+          <a:ext cx="6573296" cy="413905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD757"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFDDA0A-3F6F-42CF-AFFE-912FB19375E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="962026"/>
+          <a:ext cx="1485900" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1" u="sng"/>
+            <a:t>友達追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>496724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>116898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>316656</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DADC66-CF08-42F6-906F-30131E60B521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1868324" y="1545648"/>
+          <a:ext cx="505732" cy="504000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect l="-32368" t="-6924" r="-31579" b="-5738"/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>503636</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324463</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1EA119-86A1-4430-BFA7-4BF104E96D36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1875236" y="2730543"/>
+          <a:ext cx="506627" cy="506917"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect t="-34157" r="-56662"/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>221182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>221182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70F00BC-1AF0-4480-ADD4-F2A52492A1F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2271713" y="2602432"/>
+          <a:ext cx="4471987" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>253094</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607466</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83277A3-2698-4ADE-8584-FEDB9A7816B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2310494" y="3863352"/>
+          <a:ext cx="4469172" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>499384</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>208190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>315928</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>231799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F155099B-B926-46FE-9294-777F4A911B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1870984" y="4018190"/>
+          <a:ext cx="502344" cy="499859"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect l="1" t="-1" r="-110070" b="-100060"/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F187BCD-B614-40A4-B442-ABEBBB495957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6871608" y="1496786"/>
+          <a:ext cx="217714" cy="3054803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>186043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB45624-DF55-47E8-98E8-0E789F388069}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6874329" y="1846489"/>
+          <a:ext cx="217714" cy="1435179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>40823</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>211520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>62311</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF296F1-825D-4CAE-B879-F4DDC63510A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6898823" y="1619250"/>
+          <a:ext cx="170697" cy="109936"/>
+          <a:chOff x="6872547" y="1136431"/>
+          <a:chExt cx="170697" cy="108294"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="直線コネクタ 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6972082-2276-4BED-AB0A-FD01AC7CE692}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6872547" y="1136431"/>
+            <a:ext cx="90556" cy="100411"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="直線コネクタ 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142BC1F0-AD02-4F52-A5D6-37E96DE54EFF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6952688" y="1144314"/>
+            <a:ext cx="90556" cy="100411"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>210111</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>226535</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="グループ化 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CB6350-0B26-4B10-9BFC-A364BC544AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipV="1">
+          <a:off x="6897414" y="4404491"/>
+          <a:ext cx="170697" cy="108294"/>
+          <a:chOff x="6872547" y="1136431"/>
+          <a:chExt cx="170697" cy="108294"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="直線コネクタ 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEEA2EA-2366-4C88-9F90-A1BC74845F71}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6872547" y="1136431"/>
+            <a:ext cx="90556" cy="100411"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="直線コネクタ 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8D13C2-259C-4F2E-95C9-F14BA50124DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6952688" y="1144314"/>
+            <a:ext cx="90556" cy="100411"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>366148</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>24114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>588154</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>151603</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07CB35D-6888-4B85-888C-813AA4A8900A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2423548" y="1452864"/>
+          <a:ext cx="907806" cy="365614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>地球　太郎</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>366148</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>73204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>588154</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF13AAB5-5BBE-4A98-8903-351B9FDAFDD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2423548" y="2692579"/>
+          <a:ext cx="907806" cy="365613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>動物　花子</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>366148</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>588154</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FA9F4D-689C-4AE2-8F3C-5728FED855D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2423548" y="3957206"/>
+          <a:ext cx="907806" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>人間　太郎</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>572860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>54350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144516</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A6F3E2-C296-4F73-93FA-33CE0D863D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3316060" y="1444028"/>
+          <a:ext cx="2910490" cy="1081738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>性別：男                電話番号：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0000-00-0000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>誕生日：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>23</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>住所：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>xx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>県</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>xx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>市</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>xx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>00-0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>メールアドレス：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>xxxx@xxx.gmail.com</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580408</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>61898</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA95D541-092C-4AF9-93DC-9D6C7635CEB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3323608" y="2685880"/>
+          <a:ext cx="2910490" cy="1069926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>性別：女                電話番号：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>111-1111-1111</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>誕生日：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>23</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>住所：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>yy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>県</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>yy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>市</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>yy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>11-11</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>メールアドレス：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>xxxx@xxx.yahoo.jp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>585851</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>199760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67341</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>203638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B705A4FA-EB9E-4FBD-8A31-28E9F432E7A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3329051" y="4009760"/>
+          <a:ext cx="2910490" cy="1194503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>性別：男                電話番号：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2222-22-2222</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>誕生日：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>23</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>住所：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>zz</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>県</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>zz</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>市</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>zz</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>22-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>メールアドレス：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>xxxx@xxx.gmail.com</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87924</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>329713</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>213947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90C099E-C01A-4E6E-AF5D-4A426ACAAEAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4888524" y="1042622"/>
+          <a:ext cx="2299189" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" u="none"/>
+            <a:t>ユーザー：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" u="sng"/>
+            <a:t>テスト　次郎</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>322919</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>205644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485378</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148011</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="グループ化 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE209BA-E5DA-4B9F-B936-EE27D77CDC74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1694519" y="3539394"/>
+          <a:ext cx="1534059" cy="180492"/>
+          <a:chOff x="2227384" y="1897673"/>
+          <a:chExt cx="1539921" cy="184155"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="四角形: 角を丸くする 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318E607E-8AD7-4848-BD79-B37649D907E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2227384" y="1898164"/>
+            <a:ext cx="1539921" cy="183664"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 27925"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>友達ランク</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="65" name="直線コネクタ 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869FC1B4-4E09-4BFA-845D-06A2660435FC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3582865" y="1897673"/>
+            <a:ext cx="0" cy="175846"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="二等辺三角形 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEA53BA-4293-48D1-B28C-080EBE909F75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3612173" y="1948962"/>
+            <a:ext cx="109903" cy="95250"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>475517</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF48A66-7C6E-4485-A1A9-8B900FCCF1D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="3737462"/>
+          <a:ext cx="1532792" cy="1063794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仲良い友</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>友達</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仲良い知人</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>知り合い</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>126182</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>227716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>93067</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>227716</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E80B4B41-4C64-4504-878D-8F8260EECDEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1497782" y="4752091"/>
+          <a:ext cx="4767485" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285017</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>205154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447476</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147521</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="69" name="グループ化 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48AC0EFC-9B6C-4319-9C3E-4F4F5EEE8A78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1656617" y="2348279"/>
+          <a:ext cx="1534059" cy="180492"/>
+          <a:chOff x="2227384" y="1897673"/>
+          <a:chExt cx="1539921" cy="184156"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="四角形: 角を丸くする 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E3C7ED9-C74B-4473-972A-FFAAF0852298}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2227384" y="1898165"/>
+            <a:ext cx="1539921" cy="183664"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 33334"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>友達ランク</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="71" name="直線コネクタ 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676ED73C-5184-4A43-BDF6-177CEE04169A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3582865" y="1897673"/>
+            <a:ext cx="0" cy="175846"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="二等辺三角形 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD3A6CB-E038-4A86-95F2-410ABEFDEE8B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3612173" y="1948962"/>
+            <a:ext cx="109903" cy="95250"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>328979</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>460863</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE64417-7355-4215-9266-FA04C0570E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1700579" y="4231298"/>
+          <a:ext cx="1503484" cy="201491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="D9D9D9">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>529579</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628418</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="矢印: 下 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CDF7D9-5C93-486A-A6D5-9DB4A421503B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8233118">
+          <a:off x="2586979" y="4305732"/>
+          <a:ext cx="98839" cy="152057"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 22010"/>
+            <a:gd name="adj2" fmla="val 116396"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480332</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>24058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136681</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="88" name="グループ化 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD2181E-16AF-4EF5-B65B-08BB1D0D0419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2537732" y="976558"/>
+          <a:ext cx="1986643" cy="350748"/>
+          <a:chOff x="2537732" y="500308"/>
+          <a:chExt cx="1986643" cy="350748"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="89" name="グループ化 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAEE61E8-BABF-48AD-AC77-52DC9986F77B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2537732" y="500308"/>
+            <a:ext cx="1986643" cy="350748"/>
+            <a:chOff x="2227384" y="1898164"/>
+            <a:chExt cx="1539921" cy="185426"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="92" name="四角形: 角を丸くする 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09997008-6844-438C-A643-4B3200AD8C69}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2227384" y="1898164"/>
+              <a:ext cx="1539921" cy="183664"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 33334"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>友達を検索</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="93" name="直線コネクタ 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604CFEA9-1675-4720-B602-8D70D9AA00DC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3501650" y="1907744"/>
+              <a:ext cx="0" cy="175846"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="楕円 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E206C08-2525-415C-8A8A-4C068300C5D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4238625" y="561975"/>
+            <a:ext cx="152400" cy="142875"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="91" name="直線コネクタ 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07E5DA1-650B-4402-9D50-434181E55B65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4371975" y="695325"/>
+            <a:ext cx="85725" cy="114300"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>216776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="正方形/長方形 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FE0081-0869-4D9F-818E-368614891440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="4769069"/>
+          <a:ext cx="4991101" cy="448332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355890</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="四角形: 角を丸くする 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C30C20-0896-4631-BE71-824D983C3119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2413290" y="2042681"/>
+          <a:ext cx="777585" cy="243319"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365415</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="四角形: 角を丸くする 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8A3308-2BD8-473A-B513-B2260D9651E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2422815" y="3233306"/>
+          <a:ext cx="777585" cy="243319"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>574965</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>218212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="四角形: 角度付き 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB652B94-1428-4F8B-887F-F6EFEBF9562F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="574965" y="4109606"/>
+          <a:ext cx="929985" cy="632981"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4514"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="1">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自分の友達一覧に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12819,7 +16343,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14272,8 +17796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C492A1-E7A2-4F3E-8029-F6DAD83218D1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14286,11 +17810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B402142B-C8B6-4F40-8432-B6F6EC9E1624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6F0580-4597-4636-8538-F73F37BC9D06}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14303,10 +17827,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B402142B-C8B6-4F40-8432-B6F6EC9E1624}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095ECBB9-2B61-4646-9B46-FA260C853B83}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
